--- a/Wine_Quality/outputs/train_40_test_60/depth_7/wq_train_40_test_60_depth_7_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_7/wq_train_40_test_60_depth_7_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2876712328767123</v>
+        <v>0.5306513409961686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1418918918918919</v>
+        <v>0.3616187989556136</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1900452488687783</v>
+        <v>0.4301242236024845</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8158357771260997</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9319932998324958</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8700547302580141</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E3" t="n">
-        <v>2985</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6177884615384616</v>
+        <v>0.8156373592941892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3355091383812011</v>
+        <v>0.8981574539363484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4348561759729273</v>
+        <v>0.8549107142857143</v>
       </c>
       <c r="E4" t="n">
-        <v>766</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7848166196460631</v>
+        <v>0.7622467299307515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7848166196460631</v>
+        <v>0.7622467299307515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7848166196460631</v>
+        <v>0.7622467299307515</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7848166196460631</v>
+        <v>0.7622467299307515</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5737651571804245</v>
+        <v>0.5006147519486378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4697981100351962</v>
+        <v>0.4514569491621855</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4983187183665732</v>
+        <v>0.467560665570576</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7568789686395543</v>
+        <v>0.7345931436056533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7848166196460631</v>
+        <v>0.7622467299307515</v>
       </c>
       <c r="D7" t="n">
-        <v>0.758743241202363</v>
+        <v>0.7434715060600777</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>

--- a/Wine_Quality/outputs/train_40_test_60/depth_7/wq_train_40_test_60_depth_7_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_7/wq_train_40_test_60_depth_7_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5306513409961686</v>
+        <v>0.53</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3616187989556136</v>
+        <v>0.36</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4301242236024845</v>
+        <v>0.43</v>
       </c>
       <c r="E2" t="n">
         <v>766</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0945945945945946</v>
+        <v>0.09</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="E3" t="n">
         <v>148</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8156373592941892</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8981574539363484</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8549107142857143</v>
+        <v>0.85</v>
       </c>
       <c r="E4" t="n">
         <v>2985</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7622467299307515</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7622467299307515</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7622467299307515</v>
+        <v>0.76</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7622467299307515</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5006147519486378</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4514569491621855</v>
+        <v>0.45</v>
       </c>
       <c r="D6" t="n">
-        <v>0.467560665570576</v>
+        <v>0.47</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7345931436056533</v>
+        <v>0.73</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7622467299307515</v>
+        <v>0.76</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7434715060600777</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>
